--- a/Being-Reviewed/Geiger-tei/Letter-tracker.xlsx.xlsx
+++ b/Being-Reviewed/Geiger-tei/Letter-tracker.xlsx.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="523">
   <si>
     <t>File</t>
   </si>
@@ -934,9 +934,18 @@
     <t>liv_001815_TEI.xml</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>liv_001816_TEI.xml</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>I was unable to finish this letter because page three of the spetral image was repeated for the remaining five pages of the letter.</t>
+  </si>
+  <si>
     <t>liv_001817_TEI.xml</t>
   </si>
   <si>
@@ -964,12 +973,21 @@
     <t>liv_001854_TEI.xml</t>
   </si>
   <si>
+    <t>There's some writing before the year 1862 in the header that isn't coded, but I'm not sure what the writing says...</t>
+  </si>
+  <si>
     <t>liv_001873_TEI.xml</t>
   </si>
   <si>
+    <t>Take a look at Livingstone's signoff on the last page. The River Shire bit should come before his name but it's coded oppositely (for some good reason maybe?) and I'm wondering if the River Shire should be coded to reflect its status as a geographic feature.</t>
+  </si>
+  <si>
     <t>liv_001875_TEI.xml</t>
   </si>
   <si>
+    <t>The pages are out of order in the spectral image online.</t>
+  </si>
+  <si>
     <t>liv_001885_TEI.xml</t>
   </si>
   <si>
@@ -982,12 +1000,18 @@
     <t>liv_001911_TEI.xml</t>
   </si>
   <si>
+    <t>There are a few lines of writing at the bottom of the page in the spectral image online that aren't coded for the html version. Is there a reason behind this?</t>
+  </si>
+  <si>
     <t>liv_001921_TEI.xml</t>
   </si>
   <si>
     <t>liv_001930_TEI.xml</t>
   </si>
   <si>
+    <t>The html coded version has extra writing that looks like it should comprise about two pages at the bottom of the letter, but this writing isn't shown in the spectral image. Both versions have six pages, but page six of the spectral image was included on page five in the html version (so, pages five and six of the spectral image both appeared on page five in the html version, and there were what looked like two extra pages on the html version that didn't appear in the spectral image version). There was also some vertical writing that appeared on page six (of the spectral image) that was coded at the bottom of the page and I tried to move it to the top because that's where the vertical writing I've encountered is supposed to be per your instructions but for some reason, the red squiggly lines kept showing up and I wasn't able to see the new html version with my changes because of it.</t>
+  </si>
+  <si>
     <t>liv_001949_TEI.xml</t>
   </si>
   <si>
@@ -997,6 +1021,9 @@
     <t>liv_001957_TEI.xml</t>
   </si>
   <si>
+    <t>For some reason the spectral image wouldn't pull up online, I just kept seeing the wheel indicating the page was loading. The other letters I looked at in this session pulled up just fine though; I don't know if this means there's something wrong with just this letter's spectral image?</t>
+  </si>
+  <si>
     <t>liv_001958_TEI.xml</t>
   </si>
   <si>
@@ -1006,6 +1033,9 @@
     <t>liv_001963_TEI.xml</t>
   </si>
   <si>
+    <t>Is there a reason the vertical writing is placed at the bottom of the page in the coding/html version?</t>
+  </si>
+  <si>
     <t>liv_001968_TEI.xml</t>
   </si>
   <si>
@@ -1027,6 +1057,9 @@
     <t>liv_002007_TEI.xml</t>
   </si>
   <si>
+    <t>The spectral image is a little too faded and complicated for me to feel confident judging its margins, being written over other text.</t>
+  </si>
+  <si>
     <t>liv_002012_TEI.xml</t>
   </si>
   <si>
@@ -1096,13 +1129,7 @@
     <t>liv_002091_TEI.xml</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>liv_002092_TEI.xml</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>There may be a fourth page missing from the spectral image?</t>
@@ -10774,7 +10801,9 @@
       <c r="A305" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B305" s="2"/>
+      <c r="B305" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -10802,10 +10831,14 @@
     </row>
     <row r="306" ht="14.25" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>310</v>
+      </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
@@ -10832,9 +10865,11 @@
     </row>
     <row r="307" ht="14.25" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B307" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -10862,9 +10897,11 @@
     </row>
     <row r="308" ht="14.25" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B308" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -10892,9 +10929,11 @@
     </row>
     <row r="309" ht="14.25" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B309" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -10922,9 +10961,11 @@
     </row>
     <row r="310" ht="14.25" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B310" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -10952,9 +10993,11 @@
     </row>
     <row r="311" ht="14.25" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B311" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -10982,9 +11025,11 @@
     </row>
     <row r="312" ht="14.25" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B312" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -11012,9 +11057,11 @@
     </row>
     <row r="313" ht="14.25" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B313" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -11042,9 +11089,11 @@
     </row>
     <row r="314" ht="14.25" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B314" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -11072,10 +11121,14 @@
     </row>
     <row r="315" ht="14.25" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B315" s="2"/>
-      <c r="C315" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
@@ -11102,10 +11155,14 @@
     </row>
     <row r="316" ht="14.25" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B316" s="2"/>
-      <c r="C316" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
@@ -11132,10 +11189,14 @@
     </row>
     <row r="317" ht="14.25" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B317" s="2"/>
-      <c r="C317" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>324</v>
+      </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
@@ -11162,9 +11223,11 @@
     </row>
     <row r="318" ht="14.25" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B318" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -11192,9 +11255,11 @@
     </row>
     <row r="319" ht="14.25" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B319" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -11222,9 +11287,11 @@
     </row>
     <row r="320" ht="14.25" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B320" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -11252,10 +11319,14 @@
     </row>
     <row r="321" ht="14.25" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B321" s="2"/>
-      <c r="C321" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
@@ -11282,9 +11353,11 @@
     </row>
     <row r="322" ht="14.25" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B322" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -11312,10 +11385,14 @@
     </row>
     <row r="323" ht="14.25" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>332</v>
+      </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
@@ -11342,9 +11419,11 @@
     </row>
     <row r="324" ht="14.25" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B324" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -11372,9 +11451,11 @@
     </row>
     <row r="325" ht="14.25" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B325" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -11402,10 +11483,14 @@
     </row>
     <row r="326" ht="14.25" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>336</v>
+      </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
@@ -11432,9 +11517,11 @@
     </row>
     <row r="327" ht="14.25" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B327" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -11462,9 +11549,11 @@
     </row>
     <row r="328" ht="14.25" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B328" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -11492,10 +11581,14 @@
     </row>
     <row r="329" ht="14.25" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>340</v>
+      </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
@@ -11522,9 +11615,11 @@
     </row>
     <row r="330" ht="14.25" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B330" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -11552,9 +11647,11 @@
     </row>
     <row r="331" ht="14.25" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B331" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -11582,9 +11679,11 @@
     </row>
     <row r="332" ht="14.25" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B332" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -11612,9 +11711,11 @@
     </row>
     <row r="333" ht="14.25" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B333" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -11642,9 +11743,11 @@
     </row>
     <row r="334" ht="14.25" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B334" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -11672,9 +11775,11 @@
     </row>
     <row r="335" ht="14.25" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B335" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -11702,10 +11807,14 @@
     </row>
     <row r="336" ht="14.25" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B336" s="2"/>
-      <c r="C336" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>348</v>
+      </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
@@ -11732,9 +11841,11 @@
     </row>
     <row r="337" ht="14.25" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B337" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -11762,9 +11873,11 @@
     </row>
     <row r="338" ht="14.25" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B338" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -11792,9 +11905,11 @@
     </row>
     <row r="339" ht="14.25" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B339" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -11822,9 +11937,11 @@
     </row>
     <row r="340" ht="14.25" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B340" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -11852,9 +11969,11 @@
     </row>
     <row r="341" ht="14.25" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B341" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -11882,9 +12001,11 @@
     </row>
     <row r="342" ht="14.25" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B342" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -11912,9 +12033,11 @@
     </row>
     <row r="343" ht="14.25" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B343" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -11942,9 +12065,11 @@
     </row>
     <row r="344" ht="14.25" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B344" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -11972,9 +12097,11 @@
     </row>
     <row r="345" ht="14.25" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B345" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -12002,9 +12129,11 @@
     </row>
     <row r="346" ht="14.25" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B346" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -12032,9 +12161,11 @@
     </row>
     <row r="347" ht="14.25" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B347" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -12062,9 +12193,11 @@
     </row>
     <row r="348" ht="14.25" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B348" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -12092,9 +12225,11 @@
     </row>
     <row r="349" ht="14.25" customHeight="1">
       <c r="A349" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B349" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -12122,9 +12257,11 @@
     </row>
     <row r="350" ht="14.25" customHeight="1">
       <c r="A350" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B350" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -12152,9 +12289,11 @@
     </row>
     <row r="351" ht="14.25" customHeight="1">
       <c r="A351" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B351" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -12182,9 +12321,11 @@
     </row>
     <row r="352" ht="14.25" customHeight="1">
       <c r="A352" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B352" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -12212,9 +12353,11 @@
     </row>
     <row r="353" ht="14.25" customHeight="1">
       <c r="A353" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B353" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -12242,9 +12385,11 @@
     </row>
     <row r="354" ht="14.25" customHeight="1">
       <c r="A354" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B354" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -12272,9 +12417,11 @@
     </row>
     <row r="355" ht="14.25" customHeight="1">
       <c r="A355" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B355" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -12302,9 +12449,11 @@
     </row>
     <row r="356" ht="14.25" customHeight="1">
       <c r="A356" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B356" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -12332,9 +12481,11 @@
     </row>
     <row r="357" ht="14.25" customHeight="1">
       <c r="A357" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B357" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -12362,9 +12513,11 @@
     </row>
     <row r="358" ht="14.25" customHeight="1">
       <c r="A358" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B358" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -12392,10 +12545,10 @@
     </row>
     <row r="359" ht="14.25" customHeight="1">
       <c r="A359" s="2" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -12424,13 +12577,13 @@
     </row>
     <row r="360" ht="14.25" customHeight="1">
       <c r="A360" s="2" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -12458,10 +12611,10 @@
     </row>
     <row r="361" ht="14.25" customHeight="1">
       <c r="A361" s="2" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -12490,10 +12643,10 @@
     </row>
     <row r="362" ht="14.25" customHeight="1">
       <c r="A362" s="2" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -12522,10 +12675,10 @@
     </row>
     <row r="363" ht="14.25" customHeight="1">
       <c r="A363" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -12554,10 +12707,10 @@
     </row>
     <row r="364" ht="14.25" customHeight="1">
       <c r="A364" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -12586,10 +12739,10 @@
     </row>
     <row r="365" ht="14.25" customHeight="1">
       <c r="A365" s="2" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -12618,10 +12771,10 @@
     </row>
     <row r="366" ht="14.25" customHeight="1">
       <c r="A366" s="2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -12650,10 +12803,10 @@
     </row>
     <row r="367" ht="14.25" customHeight="1">
       <c r="A367" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -12682,13 +12835,13 @@
     </row>
     <row r="368" ht="14.25" customHeight="1">
       <c r="A368" s="2" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -12716,13 +12869,13 @@
     </row>
     <row r="369" ht="14.25" customHeight="1">
       <c r="A369" s="2" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -12750,10 +12903,10 @@
     </row>
     <row r="370" ht="14.25" customHeight="1">
       <c r="A370" s="2" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -12782,10 +12935,10 @@
     </row>
     <row r="371" ht="14.25" customHeight="1">
       <c r="A371" s="2" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -12814,10 +12967,10 @@
     </row>
     <row r="372" ht="14.25" customHeight="1">
       <c r="A372" s="2" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -12846,10 +12999,10 @@
     </row>
     <row r="373" ht="14.25" customHeight="1">
       <c r="A373" s="2" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -12878,10 +13031,10 @@
     </row>
     <row r="374" ht="14.25" customHeight="1">
       <c r="A374" s="2" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -12910,10 +13063,10 @@
     </row>
     <row r="375" ht="14.25" customHeight="1">
       <c r="A375" s="2" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -12942,13 +13095,13 @@
     </row>
     <row r="376" ht="14.25" customHeight="1">
       <c r="A376" s="2" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -12976,10 +13129,10 @@
     </row>
     <row r="377" ht="14.25" customHeight="1">
       <c r="A377" s="2" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -13008,10 +13161,10 @@
     </row>
     <row r="378" ht="14.25" customHeight="1">
       <c r="A378" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -13040,10 +13193,10 @@
     </row>
     <row r="379" ht="14.25" customHeight="1">
       <c r="A379" s="2" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -13072,10 +13225,10 @@
     </row>
     <row r="380" ht="14.25" customHeight="1">
       <c r="A380" s="2" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -13104,10 +13257,10 @@
     </row>
     <row r="381" ht="14.25" customHeight="1">
       <c r="A381" s="2" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -13136,10 +13289,10 @@
     </row>
     <row r="382" ht="14.25" customHeight="1">
       <c r="A382" s="2" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -13168,10 +13321,10 @@
     </row>
     <row r="383" ht="14.25" customHeight="1">
       <c r="A383" s="2" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -13200,10 +13353,10 @@
     </row>
     <row r="384" ht="14.25" customHeight="1">
       <c r="A384" s="2" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -13232,10 +13385,10 @@
     </row>
     <row r="385" ht="14.25" customHeight="1">
       <c r="A385" s="2" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -13264,10 +13417,10 @@
     </row>
     <row r="386" ht="14.25" customHeight="1">
       <c r="A386" s="2" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -13296,10 +13449,10 @@
     </row>
     <row r="387" ht="14.25" customHeight="1">
       <c r="A387" s="2" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -13328,10 +13481,10 @@
     </row>
     <row r="388" ht="14.25" customHeight="1">
       <c r="A388" s="2" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -13360,10 +13513,10 @@
     </row>
     <row r="389" ht="14.25" customHeight="1">
       <c r="A389" s="2" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -13392,10 +13545,10 @@
     </row>
     <row r="390" ht="14.25" customHeight="1">
       <c r="A390" s="2" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -13424,10 +13577,10 @@
     </row>
     <row r="391" ht="14.25" customHeight="1">
       <c r="A391" s="2" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -13456,10 +13609,10 @@
     </row>
     <row r="392" ht="14.25" customHeight="1">
       <c r="A392" s="2" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -13488,10 +13641,10 @@
     </row>
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="2" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -13520,10 +13673,10 @@
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -13552,13 +13705,13 @@
     </row>
     <row r="395" ht="14.25" customHeight="1">
       <c r="A395" s="2" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -13586,10 +13739,10 @@
     </row>
     <row r="396" ht="14.25" customHeight="1">
       <c r="A396" s="2" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -13618,10 +13771,10 @@
     </row>
     <row r="397" ht="14.25" customHeight="1">
       <c r="A397" s="2" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -13650,10 +13803,10 @@
     </row>
     <row r="398" ht="14.25" customHeight="1">
       <c r="A398" s="2" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -13682,13 +13835,13 @@
     </row>
     <row r="399" ht="14.25" customHeight="1">
       <c r="A399" s="2" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -13716,10 +13869,10 @@
     </row>
     <row r="400" ht="14.25" customHeight="1">
       <c r="A400" s="2" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -13748,10 +13901,10 @@
     </row>
     <row r="401" ht="14.25" customHeight="1">
       <c r="A401" s="2" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -13780,10 +13933,10 @@
     </row>
     <row r="402" ht="14.25" customHeight="1">
       <c r="A402" s="2" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -13812,10 +13965,10 @@
     </row>
     <row r="403" ht="14.25" customHeight="1">
       <c r="A403" s="2" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -13844,10 +13997,10 @@
     </row>
     <row r="404" ht="14.25" customHeight="1">
       <c r="A404" s="2" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -13876,10 +14029,10 @@
     </row>
     <row r="405" ht="14.25" customHeight="1">
       <c r="A405" s="2" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -13908,10 +14061,10 @@
     </row>
     <row r="406" ht="14.25" customHeight="1">
       <c r="A406" s="2" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -13940,10 +14093,10 @@
     </row>
     <row r="407" ht="14.25" customHeight="1">
       <c r="A407" s="2" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -13972,10 +14125,10 @@
     </row>
     <row r="408" ht="14.25" customHeight="1">
       <c r="A408" s="2" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -14004,10 +14157,10 @@
     </row>
     <row r="409" ht="14.25" customHeight="1">
       <c r="A409" s="2" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -14036,10 +14189,10 @@
     </row>
     <row r="410" ht="14.25" customHeight="1">
       <c r="A410" s="2" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -14068,10 +14221,10 @@
     </row>
     <row r="411" ht="14.25" customHeight="1">
       <c r="A411" s="2" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -14100,13 +14253,13 @@
     </row>
     <row r="412" ht="14.25" customHeight="1">
       <c r="A412" s="2" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -14134,10 +14287,10 @@
     </row>
     <row r="413" ht="14.25" customHeight="1">
       <c r="A413" s="2" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -14166,13 +14319,13 @@
     </row>
     <row r="414" ht="14.25" customHeight="1">
       <c r="A414" s="2" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -14200,10 +14353,10 @@
     </row>
     <row r="415" ht="14.25" customHeight="1">
       <c r="A415" s="2" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -14232,10 +14385,10 @@
     </row>
     <row r="416" ht="14.25" customHeight="1">
       <c r="A416" s="2" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -14264,10 +14417,10 @@
     </row>
     <row r="417" ht="14.25" customHeight="1">
       <c r="A417" s="2" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -14296,10 +14449,10 @@
     </row>
     <row r="418" ht="14.25" customHeight="1">
       <c r="A418" s="2" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -14328,10 +14481,10 @@
     </row>
     <row r="419" ht="14.25" customHeight="1">
       <c r="A419" s="2" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -14360,10 +14513,10 @@
     </row>
     <row r="420" ht="14.25" customHeight="1">
       <c r="A420" s="2" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -14392,10 +14545,10 @@
     </row>
     <row r="421" ht="14.25" customHeight="1">
       <c r="A421" s="2" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -14424,10 +14577,10 @@
     </row>
     <row r="422" ht="14.25" customHeight="1">
       <c r="A422" s="2" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -14456,10 +14609,10 @@
     </row>
     <row r="423" ht="14.25" customHeight="1">
       <c r="A423" s="2" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -14488,10 +14641,10 @@
     </row>
     <row r="424" ht="14.25" customHeight="1">
       <c r="A424" s="2" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -14520,10 +14673,10 @@
     </row>
     <row r="425" ht="14.25" customHeight="1">
       <c r="A425" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -14552,10 +14705,10 @@
     </row>
     <row r="426" ht="14.25" customHeight="1">
       <c r="A426" s="2" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -14584,13 +14737,13 @@
     </row>
     <row r="427" ht="14.25" customHeight="1">
       <c r="A427" s="2" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -14618,10 +14771,10 @@
     </row>
     <row r="428" ht="14.25" customHeight="1">
       <c r="A428" s="2" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -14650,10 +14803,10 @@
     </row>
     <row r="429" ht="14.25" customHeight="1">
       <c r="A429" s="2" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -14682,10 +14835,10 @@
     </row>
     <row r="430" ht="14.25" customHeight="1">
       <c r="A430" s="2" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -14714,13 +14867,13 @@
     </row>
     <row r="431" ht="14.25" customHeight="1">
       <c r="A431" s="2" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -14748,10 +14901,10 @@
     </row>
     <row r="432" ht="14.25" customHeight="1">
       <c r="A432" s="2" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -14780,10 +14933,10 @@
     </row>
     <row r="433" ht="14.25" customHeight="1">
       <c r="A433" s="2" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -14812,10 +14965,10 @@
     </row>
     <row r="434" ht="14.25" customHeight="1">
       <c r="A434" s="2" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -14844,10 +14997,10 @@
     </row>
     <row r="435" ht="14.25" customHeight="1">
       <c r="A435" s="2" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -14876,10 +15029,10 @@
     </row>
     <row r="436" ht="14.25" customHeight="1">
       <c r="A436" s="2" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -14908,10 +15061,10 @@
     </row>
     <row r="437" ht="14.25" customHeight="1">
       <c r="A437" s="2" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -14940,10 +15093,10 @@
     </row>
     <row r="438" ht="14.25" customHeight="1">
       <c r="A438" s="2" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -14972,13 +15125,13 @@
     </row>
     <row r="439" ht="14.25" customHeight="1">
       <c r="A439" s="2" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -15006,10 +15159,10 @@
     </row>
     <row r="440" ht="14.25" customHeight="1">
       <c r="A440" s="2" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -15038,13 +15191,13 @@
     </row>
     <row r="441" ht="14.25" customHeight="1">
       <c r="A441" s="2" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -15072,10 +15225,10 @@
     </row>
     <row r="442" ht="14.25" customHeight="1">
       <c r="A442" s="2" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -15104,10 +15257,10 @@
     </row>
     <row r="443" ht="14.25" customHeight="1">
       <c r="A443" s="2" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -15136,10 +15289,10 @@
     </row>
     <row r="444" ht="14.25" customHeight="1">
       <c r="A444" s="2" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -15168,10 +15321,10 @@
     </row>
     <row r="445" ht="14.25" customHeight="1">
       <c r="A445" s="2" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -15200,10 +15353,10 @@
     </row>
     <row r="446" ht="14.25" customHeight="1">
       <c r="A446" s="2" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -15232,13 +15385,13 @@
     </row>
     <row r="447" ht="14.25" customHeight="1">
       <c r="A447" s="2" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -15266,10 +15419,10 @@
     </row>
     <row r="448" ht="14.25" customHeight="1">
       <c r="A448" s="2" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -15298,10 +15451,10 @@
     </row>
     <row r="449" ht="14.25" customHeight="1">
       <c r="A449" s="2" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -15330,13 +15483,13 @@
     </row>
     <row r="450" ht="14.25" customHeight="1">
       <c r="A450" s="2" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -15364,10 +15517,10 @@
     </row>
     <row r="451" ht="14.25" customHeight="1">
       <c r="A451" s="2" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -15396,13 +15549,13 @@
     </row>
     <row r="452" ht="14.25" customHeight="1">
       <c r="A452" s="2" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -15430,10 +15583,10 @@
     </row>
     <row r="453" ht="14.25" customHeight="1">
       <c r="A453" s="2" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -15462,13 +15615,13 @@
     </row>
     <row r="454" ht="14.25" customHeight="1">
       <c r="A454" s="2" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -15496,10 +15649,10 @@
     </row>
     <row r="455" ht="14.25" customHeight="1">
       <c r="A455" s="2" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -15528,13 +15681,13 @@
     </row>
     <row r="456" ht="14.25" customHeight="1">
       <c r="A456" s="2" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -15562,10 +15715,10 @@
     </row>
     <row r="457" ht="14.25" customHeight="1">
       <c r="A457" s="2" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -15594,10 +15747,10 @@
     </row>
     <row r="458" ht="14.25" customHeight="1">
       <c r="A458" s="2" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -15626,10 +15779,10 @@
     </row>
     <row r="459" ht="14.25" customHeight="1">
       <c r="A459" s="2" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -15658,10 +15811,10 @@
     </row>
     <row r="460" ht="14.25" customHeight="1">
       <c r="A460" s="2" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -15690,10 +15843,10 @@
     </row>
     <row r="461" ht="14.25" customHeight="1">
       <c r="A461" s="2" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -15722,13 +15875,13 @@
     </row>
     <row r="462" ht="14.25" customHeight="1">
       <c r="A462" s="2" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -15756,13 +15909,13 @@
     </row>
     <row r="463" ht="14.25" customHeight="1">
       <c r="A463" s="2" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -15790,10 +15943,10 @@
     </row>
     <row r="464" ht="14.25" customHeight="1">
       <c r="A464" s="2" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -15822,13 +15975,13 @@
     </row>
     <row r="465" ht="14.25" customHeight="1">
       <c r="A465" s="2" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -15856,10 +16009,10 @@
     </row>
     <row r="466" ht="14.25" customHeight="1">
       <c r="A466" s="2" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -15888,10 +16041,10 @@
     </row>
     <row r="467" ht="14.25" customHeight="1">
       <c r="A467" s="2" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -15920,10 +16073,10 @@
     </row>
     <row r="468" ht="14.25" customHeight="1">
       <c r="A468" s="2" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -15952,10 +16105,10 @@
     </row>
     <row r="469" ht="14.25" customHeight="1">
       <c r="A469" s="2" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -15984,13 +16137,13 @@
     </row>
     <row r="470" ht="14.25" customHeight="1">
       <c r="A470" s="2" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -16018,10 +16171,10 @@
     </row>
     <row r="471" ht="14.25" customHeight="1">
       <c r="A471" s="2" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -16050,10 +16203,10 @@
     </row>
     <row r="472" ht="14.25" customHeight="1">
       <c r="A472" s="2" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -16082,13 +16235,13 @@
     </row>
     <row r="473" ht="14.25" customHeight="1">
       <c r="A473" s="2" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -16116,10 +16269,10 @@
     </row>
     <row r="474" ht="14.25" customHeight="1">
       <c r="A474" s="2" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -16148,10 +16301,10 @@
     </row>
     <row r="475" ht="14.25" customHeight="1">
       <c r="A475" s="2" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -16180,13 +16333,13 @@
     </row>
     <row r="476" ht="14.25" customHeight="1">
       <c r="A476" s="2" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -16214,10 +16367,10 @@
     </row>
     <row r="477" ht="14.25" customHeight="1">
       <c r="A477" s="2" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -16246,10 +16399,10 @@
     </row>
     <row r="478" ht="14.25" customHeight="1">
       <c r="A478" s="2" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -16278,10 +16431,10 @@
     </row>
     <row r="479" ht="14.25" customHeight="1">
       <c r="A479" s="2" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -16310,13 +16463,13 @@
     </row>
     <row r="480" ht="14.25" customHeight="1">
       <c r="A480" s="2" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -16344,13 +16497,13 @@
     </row>
     <row r="481" ht="14.25" customHeight="1">
       <c r="A481" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -16378,10 +16531,10 @@
     </row>
     <row r="482" ht="14.25" customHeight="1">
       <c r="A482" s="2" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -16410,10 +16563,10 @@
     </row>
     <row r="483" ht="14.25" customHeight="1">
       <c r="A483" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -16442,10 +16595,10 @@
     </row>
     <row r="484" ht="14.25" customHeight="1">
       <c r="A484" s="2" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -16474,10 +16627,10 @@
     </row>
     <row r="485" ht="14.25" customHeight="1">
       <c r="A485" s="2" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -16506,13 +16659,13 @@
     </row>
     <row r="486" ht="14.25" customHeight="1">
       <c r="A486" s="2" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -16540,10 +16693,10 @@
     </row>
     <row r="487" ht="14.25" customHeight="1">
       <c r="A487" s="2" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -16572,10 +16725,10 @@
     </row>
     <row r="488" ht="14.25" customHeight="1">
       <c r="A488" s="2" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -16604,10 +16757,10 @@
     </row>
     <row r="489" ht="14.25" customHeight="1">
       <c r="A489" s="2" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -16636,10 +16789,10 @@
     </row>
     <row r="490" ht="14.25" customHeight="1">
       <c r="A490" s="2" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>

--- a/Being-Reviewed/Geiger-tei/Letter-tracker.xlsx.xlsx
+++ b/Being-Reviewed/Geiger-tei/Letter-tracker.xlsx.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="533">
   <si>
     <t>File</t>
   </si>
@@ -778,6 +778,9 @@
     <t>liv_001592_TEI.xml</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>liv_001593_TEI.xml</t>
   </si>
   <si>
@@ -787,6 +790,12 @@
     <t>liv_001597_TEI.xml</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Oxygen can't open up an html file of the coding; the error message "cannot convert string "3-4" to an integer" displays and I'm not sure what's wrong, because there aren't any squiggly red lines...</t>
+  </si>
+  <si>
     <t>liv_001603_TEI.xml</t>
   </si>
   <si>
@@ -802,6 +811,9 @@
     <t>liv_001615_TEI.xml</t>
   </si>
   <si>
+    <t>Please take a look at the vertical text in this letter. Rather than appearing in the html version as it does in the spectral image, the vertical text that appears on page one (for example), which appears to be a continuation of what he was writing on page four when he ran out of space, is actually coded at the bottom of page four rather than above the main text on page one. This happens with page three as well.</t>
+  </si>
+  <si>
     <t>liv_001616_TEI.xml</t>
   </si>
   <si>
@@ -814,6 +826,9 @@
     <t>liv_001629_TEI.xml</t>
   </si>
   <si>
+    <t>I need some help with page six of this letter. I was attempting to move the vertical text from the bottom of the html page to the top and for some reason it's throwing the paragraphs off and I can't get it to format correctly.</t>
+  </si>
+  <si>
     <t>liv_001631_TEI.xml</t>
   </si>
   <si>
@@ -823,6 +838,9 @@
     <t>liv_001641_TEI.xml</t>
   </si>
   <si>
+    <t>Is there a reason the vertical text on the left margin isn't coded at the top of the page on page two, but rather is coded at the bottom of the page in the html version?</t>
+  </si>
+  <si>
     <t>liv_001650_TEI.xml</t>
   </si>
   <si>
@@ -847,6 +865,9 @@
     <t>liv_001696_TEI.xml</t>
   </si>
   <si>
+    <t>Other letters I have looked at today are loading just fine but when I try to pull up the spectral image for this particular letter, the page doesn't load and I'm unable to view the image to check margin alignment.</t>
+  </si>
+  <si>
     <t>liv_001702_TEI.xml</t>
   </si>
   <si>
@@ -856,6 +877,9 @@
     <t>liv_001704_TEI.xml</t>
   </si>
   <si>
+    <t>Is there a reason the vertical text isn't coded at the top of page three, but rather as part of a line in the middle of it?</t>
+  </si>
+  <si>
     <t>liv_001706_TEI.xml</t>
   </si>
   <si>
@@ -874,9 +898,15 @@
     <t>liv_001722_TEI.xml</t>
   </si>
   <si>
+    <t>Page one in the html version doesn't appear in the spectral image. Page five in the spectral image doesn't appear in the html version. There are five pages total in both the html version and the spectral image online, but the first and last pages don't match up.</t>
+  </si>
+  <si>
     <t>liv_001729_TEI.xml</t>
   </si>
   <si>
+    <t>Is the opener/salutation of this letter done correctly? I keep trying different things to try to align the margins on the first page but there are all these tags that apparently need to be added to the end of a line to close the tags, but I can't seem to add enough of them or figure out where they go.</t>
+  </si>
+  <si>
     <t>liv_001731_TEI.xml</t>
   </si>
   <si>
@@ -886,9 +916,15 @@
     <t>liv_001744_TEI.xml</t>
   </si>
   <si>
+    <t>The pages in one or the other, either the spectral images or the coding in the html version, are out of order. I probably could have changed the order easily enough, but I wasn't sure what would be correct and this seems like a pretty big oversight and I thought you should know about it.</t>
+  </si>
+  <si>
     <t>liv_001748_TEI.xml</t>
   </si>
   <si>
+    <t>Pages four and five in the spectral image are flipped upside down.</t>
+  </si>
+  <si>
     <t>liv_001753_TEI.xml</t>
   </si>
   <si>
@@ -934,13 +970,7 @@
     <t>liv_001815_TEI.xml</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>liv_001816_TEI.xml</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>I was unable to finish this letter because page three of the spetral image was repeated for the remaining five pages of the letter.</t>
@@ -9241,7 +9271,9 @@
       <c r="A253" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B253" s="2"/>
+      <c r="B253" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -9269,9 +9301,11 @@
     </row>
     <row r="254" ht="14.25" customHeight="1">
       <c r="A254" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -9299,9 +9333,11 @@
     </row>
     <row r="255" ht="14.25" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B255" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -9329,10 +9365,14 @@
     </row>
     <row r="256" ht="14.25" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -9359,9 +9399,11 @@
     </row>
     <row r="257" ht="14.25" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B257" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -9389,9 +9431,11 @@
     </row>
     <row r="258" ht="14.25" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B258" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -9419,9 +9463,11 @@
     </row>
     <row r="259" ht="14.25" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B259" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -9449,9 +9495,11 @@
     </row>
     <row r="260" ht="14.25" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B260" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -9479,10 +9527,14 @@
     </row>
     <row r="261" ht="14.25" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
@@ -9509,9 +9561,11 @@
     </row>
     <row r="262" ht="14.25" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B262" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -9539,9 +9593,11 @@
     </row>
     <row r="263" ht="14.25" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B263" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -9569,9 +9625,11 @@
     </row>
     <row r="264" ht="14.25" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B264" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -9599,10 +9657,14 @@
     </row>
     <row r="265" ht="14.25" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
@@ -9629,9 +9691,11 @@
     </row>
     <row r="266" ht="14.25" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B266" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -9659,9 +9723,11 @@
     </row>
     <row r="267" ht="14.25" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B267" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -9689,10 +9755,14 @@
     </row>
     <row r="268" ht="14.25" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
@@ -9719,9 +9789,11 @@
     </row>
     <row r="269" ht="14.25" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B269" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -9749,9 +9821,11 @@
     </row>
     <row r="270" ht="14.25" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B270" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -9779,9 +9853,11 @@
     </row>
     <row r="271" ht="14.25" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B271" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -9809,9 +9885,11 @@
     </row>
     <row r="272" ht="14.25" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B272" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -9839,9 +9917,11 @@
     </row>
     <row r="273" ht="14.25" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B273" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -9869,9 +9949,11 @@
     </row>
     <row r="274" ht="14.25" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B274" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -9899,9 +9981,11 @@
     </row>
     <row r="275" ht="14.25" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B275" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -9929,10 +10013,14 @@
     </row>
     <row r="276" ht="14.25" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
@@ -9959,9 +10047,11 @@
     </row>
     <row r="277" ht="14.25" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B277" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -9989,9 +10079,11 @@
     </row>
     <row r="278" ht="14.25" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B278" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -10019,10 +10111,14 @@
     </row>
     <row r="279" ht="14.25" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>288</v>
+      </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
@@ -10049,9 +10145,11 @@
     </row>
     <row r="280" ht="14.25" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B280" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -10079,9 +10177,11 @@
     </row>
     <row r="281" ht="14.25" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B281" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -10109,9 +10209,11 @@
     </row>
     <row r="282" ht="14.25" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B282" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -10139,9 +10241,11 @@
     </row>
     <row r="283" ht="14.25" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B283" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -10169,9 +10273,11 @@
     </row>
     <row r="284" ht="14.25" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B284" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -10199,10 +10305,14 @@
     </row>
     <row r="285" ht="14.25" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
@@ -10229,10 +10339,14 @@
     </row>
     <row r="286" ht="14.25" customHeight="1">
       <c r="A286" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>297</v>
+      </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
@@ -10259,9 +10373,11 @@
     </row>
     <row r="287" ht="14.25" customHeight="1">
       <c r="A287" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B287" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -10289,9 +10405,11 @@
     </row>
     <row r="288" ht="14.25" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B288" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -10319,10 +10437,14 @@
     </row>
     <row r="289" ht="14.25" customHeight="1">
       <c r="A289" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
@@ -10349,10 +10471,14 @@
     </row>
     <row r="290" ht="14.25" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
@@ -10379,9 +10505,11 @@
     </row>
     <row r="291" ht="14.25" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B291" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -10409,9 +10537,11 @@
     </row>
     <row r="292" ht="14.25" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B292" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -10439,9 +10569,11 @@
     </row>
     <row r="293" ht="14.25" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B293" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -10469,9 +10601,11 @@
     </row>
     <row r="294" ht="14.25" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B294" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -10499,9 +10633,11 @@
     </row>
     <row r="295" ht="14.25" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B295" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -10529,9 +10665,11 @@
     </row>
     <row r="296" ht="14.25" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B296" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -10559,9 +10697,11 @@
     </row>
     <row r="297" ht="14.25" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B297" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -10589,9 +10729,11 @@
     </row>
     <row r="298" ht="14.25" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B298" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -10619,9 +10761,11 @@
     </row>
     <row r="299" ht="14.25" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B299" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -10649,9 +10793,11 @@
     </row>
     <row r="300" ht="14.25" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B300" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -10679,9 +10825,11 @@
     </row>
     <row r="301" ht="14.25" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B301" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -10709,9 +10857,11 @@
     </row>
     <row r="302" ht="14.25" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B302" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -10739,9 +10889,11 @@
     </row>
     <row r="303" ht="14.25" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B303" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -10769,9 +10921,11 @@
     </row>
     <row r="304" ht="14.25" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B304" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -10799,10 +10953,10 @@
     </row>
     <row r="305" ht="14.25" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -10831,13 +10985,13 @@
     </row>
     <row r="306" ht="14.25" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -10865,10 +11019,10 @@
     </row>
     <row r="307" ht="14.25" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -10897,10 +11051,10 @@
     </row>
     <row r="308" ht="14.25" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -10929,10 +11083,10 @@
     </row>
     <row r="309" ht="14.25" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -10961,10 +11115,10 @@
     </row>
     <row r="310" ht="14.25" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -10993,10 +11147,10 @@
     </row>
     <row r="311" ht="14.25" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -11025,10 +11179,10 @@
     </row>
     <row r="312" ht="14.25" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -11057,10 +11211,10 @@
     </row>
     <row r="313" ht="14.25" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -11089,10 +11243,10 @@
     </row>
     <row r="314" ht="14.25" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -11121,13 +11275,13 @@
     </row>
     <row r="315" ht="14.25" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -11155,13 +11309,13 @@
     </row>
     <row r="316" ht="14.25" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -11189,13 +11343,13 @@
     </row>
     <row r="317" ht="14.25" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -11223,10 +11377,10 @@
     </row>
     <row r="318" ht="14.25" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -11255,10 +11409,10 @@
     </row>
     <row r="319" ht="14.25" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -11287,10 +11441,10 @@
     </row>
     <row r="320" ht="14.25" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -11319,13 +11473,13 @@
     </row>
     <row r="321" ht="14.25" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -11353,10 +11507,10 @@
     </row>
     <row r="322" ht="14.25" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -11385,13 +11539,13 @@
     </row>
     <row r="323" ht="14.25" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -11419,10 +11573,10 @@
     </row>
     <row r="324" ht="14.25" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -11451,10 +11605,10 @@
     </row>
     <row r="325" ht="14.25" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -11483,13 +11637,13 @@
     </row>
     <row r="326" ht="14.25" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -11517,10 +11671,10 @@
     </row>
     <row r="327" ht="14.25" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -11549,10 +11703,10 @@
     </row>
     <row r="328" ht="14.25" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -11581,13 +11735,13 @@
     </row>
     <row r="329" ht="14.25" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -11615,10 +11769,10 @@
     </row>
     <row r="330" ht="14.25" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -11647,10 +11801,10 @@
     </row>
     <row r="331" ht="14.25" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -11679,10 +11833,10 @@
     </row>
     <row r="332" ht="14.25" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -11711,10 +11865,10 @@
     </row>
     <row r="333" ht="14.25" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -11743,10 +11897,10 @@
     </row>
     <row r="334" ht="14.25" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -11775,10 +11929,10 @@
     </row>
     <row r="335" ht="14.25" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -11807,13 +11961,13 @@
     </row>
     <row r="336" ht="14.25" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -11841,10 +11995,10 @@
     </row>
     <row r="337" ht="14.25" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -11873,10 +12027,10 @@
     </row>
     <row r="338" ht="14.25" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -11905,10 +12059,10 @@
     </row>
     <row r="339" ht="14.25" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -11937,10 +12091,10 @@
     </row>
     <row r="340" ht="14.25" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -11969,10 +12123,10 @@
     </row>
     <row r="341" ht="14.25" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -12001,10 +12155,10 @@
     </row>
     <row r="342" ht="14.25" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -12033,10 +12187,10 @@
     </row>
     <row r="343" ht="14.25" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -12065,10 +12219,10 @@
     </row>
     <row r="344" ht="14.25" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -12097,10 +12251,10 @@
     </row>
     <row r="345" ht="14.25" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -12129,10 +12283,10 @@
     </row>
     <row r="346" ht="14.25" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -12161,10 +12315,10 @@
     </row>
     <row r="347" ht="14.25" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -12193,10 +12347,10 @@
     </row>
     <row r="348" ht="14.25" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -12225,10 +12379,10 @@
     </row>
     <row r="349" ht="14.25" customHeight="1">
       <c r="A349" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -12257,10 +12411,10 @@
     </row>
     <row r="350" ht="14.25" customHeight="1">
       <c r="A350" s="2" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -12289,10 +12443,10 @@
     </row>
     <row r="351" ht="14.25" customHeight="1">
       <c r="A351" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -12321,10 +12475,10 @@
     </row>
     <row r="352" ht="14.25" customHeight="1">
       <c r="A352" s="2" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -12353,10 +12507,10 @@
     </row>
     <row r="353" ht="14.25" customHeight="1">
       <c r="A353" s="2" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -12385,10 +12539,10 @@
     </row>
     <row r="354" ht="14.25" customHeight="1">
       <c r="A354" s="2" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -12417,10 +12571,10 @@
     </row>
     <row r="355" ht="14.25" customHeight="1">
       <c r="A355" s="2" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -12449,10 +12603,10 @@
     </row>
     <row r="356" ht="14.25" customHeight="1">
       <c r="A356" s="2" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -12481,10 +12635,10 @@
     </row>
     <row r="357" ht="14.25" customHeight="1">
       <c r="A357" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -12513,10 +12667,10 @@
     </row>
     <row r="358" ht="14.25" customHeight="1">
       <c r="A358" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -12545,10 +12699,10 @@
     </row>
     <row r="359" ht="14.25" customHeight="1">
       <c r="A359" s="2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -12577,13 +12731,13 @@
     </row>
     <row r="360" ht="14.25" customHeight="1">
       <c r="A360" s="2" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -12611,10 +12765,10 @@
     </row>
     <row r="361" ht="14.25" customHeight="1">
       <c r="A361" s="2" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -12643,10 +12797,10 @@
     </row>
     <row r="362" ht="14.25" customHeight="1">
       <c r="A362" s="2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -12675,10 +12829,10 @@
     </row>
     <row r="363" ht="14.25" customHeight="1">
       <c r="A363" s="2" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -12707,10 +12861,10 @@
     </row>
     <row r="364" ht="14.25" customHeight="1">
       <c r="A364" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -12739,10 +12893,10 @@
     </row>
     <row r="365" ht="14.25" customHeight="1">
       <c r="A365" s="2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -12771,10 +12925,10 @@
     </row>
     <row r="366" ht="14.25" customHeight="1">
       <c r="A366" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -12803,10 +12957,10 @@
     </row>
     <row r="367" ht="14.25" customHeight="1">
       <c r="A367" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -12835,13 +12989,13 @@
     </row>
     <row r="368" ht="14.25" customHeight="1">
       <c r="A368" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -12869,13 +13023,13 @@
     </row>
     <row r="369" ht="14.25" customHeight="1">
       <c r="A369" s="2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -12903,10 +13057,10 @@
     </row>
     <row r="370" ht="14.25" customHeight="1">
       <c r="A370" s="2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -12935,10 +13089,10 @@
     </row>
     <row r="371" ht="14.25" customHeight="1">
       <c r="A371" s="2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -12967,10 +13121,10 @@
     </row>
     <row r="372" ht="14.25" customHeight="1">
       <c r="A372" s="2" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -12999,10 +13153,10 @@
     </row>
     <row r="373" ht="14.25" customHeight="1">
       <c r="A373" s="2" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -13031,10 +13185,10 @@
     </row>
     <row r="374" ht="14.25" customHeight="1">
       <c r="A374" s="2" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -13063,10 +13217,10 @@
     </row>
     <row r="375" ht="14.25" customHeight="1">
       <c r="A375" s="2" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -13095,13 +13249,13 @@
     </row>
     <row r="376" ht="14.25" customHeight="1">
       <c r="A376" s="2" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -13129,10 +13283,10 @@
     </row>
     <row r="377" ht="14.25" customHeight="1">
       <c r="A377" s="2" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -13161,10 +13315,10 @@
     </row>
     <row r="378" ht="14.25" customHeight="1">
       <c r="A378" s="2" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -13193,10 +13347,10 @@
     </row>
     <row r="379" ht="14.25" customHeight="1">
       <c r="A379" s="2" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -13225,10 +13379,10 @@
     </row>
     <row r="380" ht="14.25" customHeight="1">
       <c r="A380" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -13257,10 +13411,10 @@
     </row>
     <row r="381" ht="14.25" customHeight="1">
       <c r="A381" s="2" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -13289,10 +13443,10 @@
     </row>
     <row r="382" ht="14.25" customHeight="1">
       <c r="A382" s="2" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -13321,10 +13475,10 @@
     </row>
     <row r="383" ht="14.25" customHeight="1">
       <c r="A383" s="2" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -13353,10 +13507,10 @@
     </row>
     <row r="384" ht="14.25" customHeight="1">
       <c r="A384" s="2" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -13385,10 +13539,10 @@
     </row>
     <row r="385" ht="14.25" customHeight="1">
       <c r="A385" s="2" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -13417,10 +13571,10 @@
     </row>
     <row r="386" ht="14.25" customHeight="1">
       <c r="A386" s="2" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -13449,10 +13603,10 @@
     </row>
     <row r="387" ht="14.25" customHeight="1">
       <c r="A387" s="2" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -13481,10 +13635,10 @@
     </row>
     <row r="388" ht="14.25" customHeight="1">
       <c r="A388" s="2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -13513,10 +13667,10 @@
     </row>
     <row r="389" ht="14.25" customHeight="1">
       <c r="A389" s="2" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -13545,10 +13699,10 @@
     </row>
     <row r="390" ht="14.25" customHeight="1">
       <c r="A390" s="2" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -13577,10 +13731,10 @@
     </row>
     <row r="391" ht="14.25" customHeight="1">
       <c r="A391" s="2" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -13609,10 +13763,10 @@
     </row>
     <row r="392" ht="14.25" customHeight="1">
       <c r="A392" s="2" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -13641,10 +13795,10 @@
     </row>
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="2" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -13673,10 +13827,10 @@
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="2" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -13705,13 +13859,13 @@
     </row>
     <row r="395" ht="14.25" customHeight="1">
       <c r="A395" s="2" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -13739,10 +13893,10 @@
     </row>
     <row r="396" ht="14.25" customHeight="1">
       <c r="A396" s="2" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -13771,10 +13925,10 @@
     </row>
     <row r="397" ht="14.25" customHeight="1">
       <c r="A397" s="2" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -13803,10 +13957,10 @@
     </row>
     <row r="398" ht="14.25" customHeight="1">
       <c r="A398" s="2" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -13835,13 +13989,13 @@
     </row>
     <row r="399" ht="14.25" customHeight="1">
       <c r="A399" s="2" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -13869,10 +14023,10 @@
     </row>
     <row r="400" ht="14.25" customHeight="1">
       <c r="A400" s="2" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -13901,10 +14055,10 @@
     </row>
     <row r="401" ht="14.25" customHeight="1">
       <c r="A401" s="2" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -13933,10 +14087,10 @@
     </row>
     <row r="402" ht="14.25" customHeight="1">
       <c r="A402" s="2" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -13965,10 +14119,10 @@
     </row>
     <row r="403" ht="14.25" customHeight="1">
       <c r="A403" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -13997,10 +14151,10 @@
     </row>
     <row r="404" ht="14.25" customHeight="1">
       <c r="A404" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -14029,10 +14183,10 @@
     </row>
     <row r="405" ht="14.25" customHeight="1">
       <c r="A405" s="2" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -14061,10 +14215,10 @@
     </row>
     <row r="406" ht="14.25" customHeight="1">
       <c r="A406" s="2" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -14093,10 +14247,10 @@
     </row>
     <row r="407" ht="14.25" customHeight="1">
       <c r="A407" s="2" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -14125,10 +14279,10 @@
     </row>
     <row r="408" ht="14.25" customHeight="1">
       <c r="A408" s="2" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -14157,10 +14311,10 @@
     </row>
     <row r="409" ht="14.25" customHeight="1">
       <c r="A409" s="2" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -14189,10 +14343,10 @@
     </row>
     <row r="410" ht="14.25" customHeight="1">
       <c r="A410" s="2" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -14221,10 +14375,10 @@
     </row>
     <row r="411" ht="14.25" customHeight="1">
       <c r="A411" s="2" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -14253,13 +14407,13 @@
     </row>
     <row r="412" ht="14.25" customHeight="1">
       <c r="A412" s="2" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -14287,10 +14441,10 @@
     </row>
     <row r="413" ht="14.25" customHeight="1">
       <c r="A413" s="2" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -14319,13 +14473,13 @@
     </row>
     <row r="414" ht="14.25" customHeight="1">
       <c r="A414" s="2" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -14353,10 +14507,10 @@
     </row>
     <row r="415" ht="14.25" customHeight="1">
       <c r="A415" s="2" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -14385,10 +14539,10 @@
     </row>
     <row r="416" ht="14.25" customHeight="1">
       <c r="A416" s="2" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -14417,10 +14571,10 @@
     </row>
     <row r="417" ht="14.25" customHeight="1">
       <c r="A417" s="2" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -14449,10 +14603,10 @@
     </row>
     <row r="418" ht="14.25" customHeight="1">
       <c r="A418" s="2" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -14481,10 +14635,10 @@
     </row>
     <row r="419" ht="14.25" customHeight="1">
       <c r="A419" s="2" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -14513,10 +14667,10 @@
     </row>
     <row r="420" ht="14.25" customHeight="1">
       <c r="A420" s="2" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -14545,10 +14699,10 @@
     </row>
     <row r="421" ht="14.25" customHeight="1">
       <c r="A421" s="2" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -14577,10 +14731,10 @@
     </row>
     <row r="422" ht="14.25" customHeight="1">
       <c r="A422" s="2" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -14609,10 +14763,10 @@
     </row>
     <row r="423" ht="14.25" customHeight="1">
       <c r="A423" s="2" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -14641,10 +14795,10 @@
     </row>
     <row r="424" ht="14.25" customHeight="1">
       <c r="A424" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -14673,10 +14827,10 @@
     </row>
     <row r="425" ht="14.25" customHeight="1">
       <c r="A425" s="2" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -14705,10 +14859,10 @@
     </row>
     <row r="426" ht="14.25" customHeight="1">
       <c r="A426" s="2" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -14737,13 +14891,13 @@
     </row>
     <row r="427" ht="14.25" customHeight="1">
       <c r="A427" s="2" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -14771,10 +14925,10 @@
     </row>
     <row r="428" ht="14.25" customHeight="1">
       <c r="A428" s="2" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -14803,10 +14957,10 @@
     </row>
     <row r="429" ht="14.25" customHeight="1">
       <c r="A429" s="2" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -14835,10 +14989,10 @@
     </row>
     <row r="430" ht="14.25" customHeight="1">
       <c r="A430" s="2" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -14867,13 +15021,13 @@
     </row>
     <row r="431" ht="14.25" customHeight="1">
       <c r="A431" s="2" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -14901,10 +15055,10 @@
     </row>
     <row r="432" ht="14.25" customHeight="1">
       <c r="A432" s="2" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -14933,10 +15087,10 @@
     </row>
     <row r="433" ht="14.25" customHeight="1">
       <c r="A433" s="2" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -14965,10 +15119,10 @@
     </row>
     <row r="434" ht="14.25" customHeight="1">
       <c r="A434" s="2" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -14997,10 +15151,10 @@
     </row>
     <row r="435" ht="14.25" customHeight="1">
       <c r="A435" s="2" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -15029,10 +15183,10 @@
     </row>
     <row r="436" ht="14.25" customHeight="1">
       <c r="A436" s="2" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -15061,10 +15215,10 @@
     </row>
     <row r="437" ht="14.25" customHeight="1">
       <c r="A437" s="2" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -15093,10 +15247,10 @@
     </row>
     <row r="438" ht="14.25" customHeight="1">
       <c r="A438" s="2" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -15125,13 +15279,13 @@
     </row>
     <row r="439" ht="14.25" customHeight="1">
       <c r="A439" s="2" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -15159,10 +15313,10 @@
     </row>
     <row r="440" ht="14.25" customHeight="1">
       <c r="A440" s="2" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -15191,13 +15345,13 @@
     </row>
     <row r="441" ht="14.25" customHeight="1">
       <c r="A441" s="2" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -15225,10 +15379,10 @@
     </row>
     <row r="442" ht="14.25" customHeight="1">
       <c r="A442" s="2" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -15257,10 +15411,10 @@
     </row>
     <row r="443" ht="14.25" customHeight="1">
       <c r="A443" s="2" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -15289,10 +15443,10 @@
     </row>
     <row r="444" ht="14.25" customHeight="1">
       <c r="A444" s="2" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -15321,10 +15475,10 @@
     </row>
     <row r="445" ht="14.25" customHeight="1">
       <c r="A445" s="2" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -15353,10 +15507,10 @@
     </row>
     <row r="446" ht="14.25" customHeight="1">
       <c r="A446" s="2" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -15385,13 +15539,13 @@
     </row>
     <row r="447" ht="14.25" customHeight="1">
       <c r="A447" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -15419,10 +15573,10 @@
     </row>
     <row r="448" ht="14.25" customHeight="1">
       <c r="A448" s="2" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -15451,10 +15605,10 @@
     </row>
     <row r="449" ht="14.25" customHeight="1">
       <c r="A449" s="2" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -15483,13 +15637,13 @@
     </row>
     <row r="450" ht="14.25" customHeight="1">
       <c r="A450" s="2" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -15517,10 +15671,10 @@
     </row>
     <row r="451" ht="14.25" customHeight="1">
       <c r="A451" s="2" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -15549,13 +15703,13 @@
     </row>
     <row r="452" ht="14.25" customHeight="1">
       <c r="A452" s="2" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -15583,10 +15737,10 @@
     </row>
     <row r="453" ht="14.25" customHeight="1">
       <c r="A453" s="2" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -15615,13 +15769,13 @@
     </row>
     <row r="454" ht="14.25" customHeight="1">
       <c r="A454" s="2" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -15649,10 +15803,10 @@
     </row>
     <row r="455" ht="14.25" customHeight="1">
       <c r="A455" s="2" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -15681,13 +15835,13 @@
     </row>
     <row r="456" ht="14.25" customHeight="1">
       <c r="A456" s="2" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -15715,10 +15869,10 @@
     </row>
     <row r="457" ht="14.25" customHeight="1">
       <c r="A457" s="2" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -15747,10 +15901,10 @@
     </row>
     <row r="458" ht="14.25" customHeight="1">
       <c r="A458" s="2" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -15779,10 +15933,10 @@
     </row>
     <row r="459" ht="14.25" customHeight="1">
       <c r="A459" s="2" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -15811,10 +15965,10 @@
     </row>
     <row r="460" ht="14.25" customHeight="1">
       <c r="A460" s="2" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -15843,10 +15997,10 @@
     </row>
     <row r="461" ht="14.25" customHeight="1">
       <c r="A461" s="2" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -15875,13 +16029,13 @@
     </row>
     <row r="462" ht="14.25" customHeight="1">
       <c r="A462" s="2" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -15909,13 +16063,13 @@
     </row>
     <row r="463" ht="14.25" customHeight="1">
       <c r="A463" s="2" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -15943,10 +16097,10 @@
     </row>
     <row r="464" ht="14.25" customHeight="1">
       <c r="A464" s="2" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -15975,13 +16129,13 @@
     </row>
     <row r="465" ht="14.25" customHeight="1">
       <c r="A465" s="2" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -16009,10 +16163,10 @@
     </row>
     <row r="466" ht="14.25" customHeight="1">
       <c r="A466" s="2" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -16041,10 +16195,10 @@
     </row>
     <row r="467" ht="14.25" customHeight="1">
       <c r="A467" s="2" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -16073,10 +16227,10 @@
     </row>
     <row r="468" ht="14.25" customHeight="1">
       <c r="A468" s="2" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -16105,10 +16259,10 @@
     </row>
     <row r="469" ht="14.25" customHeight="1">
       <c r="A469" s="2" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -16137,13 +16291,13 @@
     </row>
     <row r="470" ht="14.25" customHeight="1">
       <c r="A470" s="2" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -16171,10 +16325,10 @@
     </row>
     <row r="471" ht="14.25" customHeight="1">
       <c r="A471" s="2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -16203,10 +16357,10 @@
     </row>
     <row r="472" ht="14.25" customHeight="1">
       <c r="A472" s="2" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -16235,13 +16389,13 @@
     </row>
     <row r="473" ht="14.25" customHeight="1">
       <c r="A473" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -16269,10 +16423,10 @@
     </row>
     <row r="474" ht="14.25" customHeight="1">
       <c r="A474" s="2" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -16301,10 +16455,10 @@
     </row>
     <row r="475" ht="14.25" customHeight="1">
       <c r="A475" s="2" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -16333,13 +16487,13 @@
     </row>
     <row r="476" ht="14.25" customHeight="1">
       <c r="A476" s="2" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -16367,10 +16521,10 @@
     </row>
     <row r="477" ht="14.25" customHeight="1">
       <c r="A477" s="2" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -16399,10 +16553,10 @@
     </row>
     <row r="478" ht="14.25" customHeight="1">
       <c r="A478" s="2" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -16431,10 +16585,10 @@
     </row>
     <row r="479" ht="14.25" customHeight="1">
       <c r="A479" s="2" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -16463,13 +16617,13 @@
     </row>
     <row r="480" ht="14.25" customHeight="1">
       <c r="A480" s="2" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -16497,13 +16651,13 @@
     </row>
     <row r="481" ht="14.25" customHeight="1">
       <c r="A481" s="2" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -16531,10 +16685,10 @@
     </row>
     <row r="482" ht="14.25" customHeight="1">
       <c r="A482" s="2" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -16563,10 +16717,10 @@
     </row>
     <row r="483" ht="14.25" customHeight="1">
       <c r="A483" s="2" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -16595,10 +16749,10 @@
     </row>
     <row r="484" ht="14.25" customHeight="1">
       <c r="A484" s="2" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -16627,10 +16781,10 @@
     </row>
     <row r="485" ht="14.25" customHeight="1">
       <c r="A485" s="2" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -16659,13 +16813,13 @@
     </row>
     <row r="486" ht="14.25" customHeight="1">
       <c r="A486" s="2" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -16693,10 +16847,10 @@
     </row>
     <row r="487" ht="14.25" customHeight="1">
       <c r="A487" s="2" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -16725,10 +16879,10 @@
     </row>
     <row r="488" ht="14.25" customHeight="1">
       <c r="A488" s="2" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -16757,10 +16911,10 @@
     </row>
     <row r="489" ht="14.25" customHeight="1">
       <c r="A489" s="2" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -16789,10 +16943,10 @@
     </row>
     <row r="490" ht="14.25" customHeight="1">
       <c r="A490" s="2" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
